--- a/biology/Médecine/Matrice_de_Haddon/Matrice_de_Haddon.xlsx
+++ b/biology/Médecine/Matrice_de_Haddon/Matrice_de_Haddon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La matrice de Haddon est un paradigme dominant dans le domaine de la prévention des blessures et de la santé publique. Développée par William Haddon (d) en 1970, cette matrice examine les facteurs liés aux attributs personnels, aux attributs des vecteurs ou des agents et aux attributs environnementaux avant, pendant et après un traumatisme ou une mort au travail (en). Elle permet ainsi d'évaluer le degré d'importance de chacun des facteurs et de planifier les interventions en conséquence[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La matrice de Haddon est un paradigme dominant dans le domaine de la prévention des blessures et de la santé publique. Développée par William Haddon (d) en 1970, cette matrice examine les facteurs liés aux attributs personnels, aux attributs des vecteurs ou des agents et aux attributs environnementaux avant, pendant et après un traumatisme ou une mort au travail (en). Elle permet ainsi d'évaluer le degré d'importance de chacun des facteurs et de planifier les interventions en conséquence.
 </t>
         </is>
       </c>
@@ -511,22 +523,12 @@
           <t>Prévention des blessures</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Manières de prévenir les blessures au cours des différentes phases, souvent appelées les stratégies de Haddon[2],[3],[4],[5],[6] :
-Avant
-Prévenir l'existence de l'agent,
-Prévenir la libération de l'agent,
-Séparer l'agent de l'hôte,
-Protéger l'hôte.
-Pendant
-Minimiser le nombre d'agents présents,
-Contrôler le mode de transmission de l'agent,
-Contrôler l'interaction entre l'agent et l'hôte,
-Augmenter la résilience de l'hôte.
-Après
-Fournir rapidement un traitement à l'hôte,
-S'assurer de l'efficacité du traitement et la réhabilitation de l'hôte.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manières de prévenir les blessures au cours des différentes phases, souvent appelées les stratégies de Haddon :
+</t>
         </is>
       </c>
     </row>
@@ -551,10 +553,127 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Prévention des blessures</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Avant</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prévenir l'existence de l'agent,
+Prévenir la libération de l'agent,
+Séparer l'agent de l'hôte,
+Protéger l'hôte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prévention des blessures</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pendant</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Minimiser le nombre d'agents présents,
+Contrôler le mode de transmission de l'agent,
+Contrôler l'interaction entre l'agent et l'hôte,
+Augmenter la résilience de l'hôte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prévention des blessures</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Après</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fournir rapidement un traitement à l'hôte,
+S'assurer de l'efficacité du traitement et la réhabilitation de l'hôte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Matrice_de_Haddon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Exemple</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une matrice de Haddon typique appliquée à un accident automobile :
 </t>
